--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,61 +436,46 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>1.910666127459315</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>0.6492937867006665</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>0.1715429114845346</v>
+        <v>0.1715429114845124</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>0.2478029645461621</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>0.1715429114845346</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>0.8509156074281155</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -501,30 +486,21 @@
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>4.590949402546851</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>0.8004663283405655</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>4.859624274446639</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -535,30 +511,21 @@
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>6.528307842404013</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>5.253783907501819</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>4.695210483877932</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>2.728164648391185</v>
+        <v>0.5784444854042281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>3.522405026196918</v>
+        <v>1.133560223479058</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>1.881828690227838</v>
+        <v>1.985690391709771</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>5.01424274443687</v>
+        <v>2.529895848567842</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>1.656063945467268</v>
+        <v>3.633318781899142</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>3.853158971520942</v>
+        <v>2.715291551682419</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>4.963935273957154</v>
+        <v>4.060884847379076</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>4.06235252733802</v>
+        <v>3.057638025163611</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>2.990570386122382</v>
+        <v>2.42782168586293</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.973747512448343</v>
+        <v>2.270469368501771</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>3.05427116350534</v>
+        <v>2.319057151538662</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>2.306783028297055</v>
+        <v>2.508920621023392</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.420751168230217</v>
+        <v>2.467161166346266</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>2.305809238174006</v>
+        <v>2.536029549059826</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>2.547114352819779</v>
+        <v>2.546671316138061</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.434773703516147</v>
+        <v>2.480855794925163</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>2.509111342826809</v>
+        <v>3.025024236774643</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>3.218336425087465</v>
+        <v>2.69389938681992</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.220130655314013</v>
+        <v>3.120740332206995</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>3.315294106121924</v>
+        <v>2.775533179497169</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.297011904810243</v>
+        <v>3.279355759764568</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>3.699746550608474</v>
+        <v>3.107596903291299</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.698824700849923</v>
+        <v>3.221757900820066</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>3.296731496509198</v>
+        <v>2.945303709067959</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>2.926968792950002</v>
+        <v>2.591074440292807</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.848273197519613</v>
+        <v>2.891533899000343</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.217691096581187</v>
+        <v>2.545843589346886</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.783907785663198</v>
+        <v>2.827707622797226</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.798452007460738</v>
+        <v>2.413544192054795</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.689890129818551</v>
+        <v>2.631992339577627</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>2.861315725866587</v>
+        <v>2.552688975800033</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>2.561163765278374</v>
+        <v>2.616345720823721</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.637867031864882</v>
+        <v>2.618329006605924</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.829622026216927</v>
+        <v>2.671430903007876</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>1.841406700970061</v>
+        <v>1.790319754067715</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.136136986781323</v>
+        <v>1.691013991470625</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.136336055115096</v>
+        <v>2.153309886824961</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>1.790319754067715</v>
+        <v>2.130407351599706</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>2.133537709052757</v>
+        <v>2.785334366326175</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.133808466953946</v>
+        <v>2.137626121054947</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.829704993179227</v>
+        <v>2.891950990452763</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.134077088567254</v>
+        <v>2.339531676162721</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.829971696551858</v>
+        <v>3.941556826710224</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>5.542003005885743</v>
+        <v>4.667362054855917</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>2.339531676162721</v>
+        <v>5.037171918133976</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>5.54163445616509</v>
+        <v>3.641364543513781</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>5.411659135174118</v>
+        <v>4.951039758187648</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>4.152343337882791</v>
+        <v>3.481452844954491</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>5.04459987483179</v>
+        <v>4.834496776263886</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>4.366242242642326</v>
+        <v>2.845322256798233</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1047,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.778727265168079</v>
+        <v>3.305715257492858</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>4.834496776263886</v>
+        <v>3.153537734543965</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>3.492022830615338</v>
+        <v>2.935215611250452</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>3.171701472859723</v>
+        <v>2.838865660558509</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>3.313336685638868</v>
+        <v>2.377254777217375</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>2.824943501366195</v>
+        <v>2.798216547494237</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>3.591136243562021</v>
+        <v>2.138412043368865</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>3.285431995518517</v>
+        <v>1.757655717321982</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>2.798216547494237</v>
+        <v>1.831762447564067</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>1.779426293060404</v>
+        <v>2.69124964061378</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.785761317689727</v>
+        <v>1.625773169906108</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.432837764269657</v>
+        <v>2.42082970885531</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.580512425878888</v>
+        <v>1.530879676868468</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>2.455689670679972</v>
+        <v>2.01742511619909</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1183,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>2.125082674338974</v>
+        <v>2.159361127638926</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>1.530879676868468</v>
+        <v>2.104676416355189</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>2.103671369075166</v>
+        <v>2.754798876280251</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.041299972273869</v>
+        <v>2.030491763452114</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>2.66908700341888</v>
+        <v>2.559374235215039</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.057287156976417</v>
+        <v>2.060859685319461</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>3.10450669425526</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>2.060859685319461</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>3.217185105987364</v>
+        <v>2.733459627814305</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>5.896808312953783</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>7.441962824572235</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>0.1715429114845124</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>6.277541464866987</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.8004663283405655</v>
+        <v>5.907218141265402</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>5.917486466529609</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>6.535114773304773</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>6.325696408067327</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>5.253783907501819</v>
+        <v>6.511263427347003</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>6.422943767670297</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>5.12051970717502</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>4.950888348161886</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>3.522405026196918</v>
+        <v>4.325828829470257</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.5784444854042281</v>
+        <v>4.493586323244281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>3.65682115264816</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>1.133560223479058</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>1.985690391709771</v>
+        <v>3.982564147794321</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>1.656063945467268</v>
+        <v>2.964652118442834</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>2.529895848567842</v>
+        <v>3.83627393798931</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>2.943878639034381</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>3.633318781899142</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>2.715291551682419</v>
+        <v>4.334309403335435</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>4.06235252733802</v>
+        <v>3.171852776411788</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>4.060884847379076</v>
+        <v>4.030605385534614</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>1.172679597477866</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>3.057638025163611</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>2.42782168586293</v>
+        <v>2.644356903452572</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>3.05427116350534</v>
+        <v>1.773712379859993</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>2.270469368501771</v>
+        <v>3.484530515673856</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>2.961845079861303</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>2.319057151538662</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>2.508920621023392</v>
+        <v>3.383932287548697</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.305809238174006</v>
+        <v>2.533350906619081</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.467161166346266</v>
+        <v>3.524103740130435</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>2.508469427909898</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2.536029549059826</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>2.546671316138061</v>
+        <v>3.355044026998955</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.509111342826809</v>
+        <v>2.661040979345697</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.480855794925163</v>
+        <v>3.567108445582057</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>3.523703831572056</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>3.025024236774643</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>2.69389938681992</v>
+        <v>3.74984170812418</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.120740332206995</v>
+        <v>2.788213251109939</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.775533179497169</v>
+        <v>3.595252063027843</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.279355759764568</v>
+        <v>3.150198973767537</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>3.107596903291299</v>
+        <v>3.699072253610103</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>3.296731496509198</v>
+        <v>1.334931695392405</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.221757900820066</v>
+        <v>2.689909849380556</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.178605266817589</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>2.945303709067959</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>2.591074440292807</v>
+        <v>2.186196327763934</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.891533899000343</v>
+        <v>1.80511617406458</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.545843589346886</v>
+        <v>3.037278170871094</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.827707622797226</v>
+        <v>0.4641929091049102</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.413544192054795</v>
+        <v>2.550259844884462</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>2.861315725866587</v>
+        <v>2.9927258084951</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.631992339577627</v>
+        <v>2.807906319450781</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>3.047037961814492</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>2.552688975800033</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>2.616345720823721</v>
+        <v>2.880436144359444</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.618329006605924</v>
+        <v>3.113514644866355</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.671430903007876</v>
+        <v>2.798268189979214</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>1.790319754067715</v>
+        <v>2.585454129751663</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>1.691013991470625</v>
+        <v>2.671828487424377</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>1.790319754067715</v>
+        <v>-0.4891791466461126</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.153309886824961</v>
+        <v>1.156476476708135</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-0.2228847697281378</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>2.130407351599706</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>2.785334366326175</v>
+        <v>1.982741503124119</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.137626121054947</v>
+        <v>2.240953541724267</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.891950990452763</v>
+        <v>2.598498189609066</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.339531676162721</v>
+        <v>-0.4532848472497908</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>3.941556826710224</v>
+        <v>2.066462658785673</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>2.339531676162721</v>
+        <v>-0.7941560676977599</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.667362054855917</v>
+        <v>2.320050994894562</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>-1.165854108406617</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>5.037171918133976</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>3.641364543513781</v>
+        <v>2.782217648649521</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>4.951039758187648</v>
+        <v>3.392010093835562</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.481452844954491</v>
+        <v>2.595837839692172</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>4.834496776263886</v>
+        <v>0.9477102747197819</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.845322256798233</v>
+        <v>1.83067479293082</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.834496776263886</v>
+        <v>2.34069710769782</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.305715257492858</v>
+        <v>2.116186509693896</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>2.501311189006916</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>3.153537734543965</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>2.935215611250452</v>
+        <v>2.985901060752827</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>2.838865660558509</v>
+        <v>2.735256324140778</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.377254777217375</v>
+        <v>2.169811364059249</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>2.798216547494237</v>
+        <v>2.222852754198135</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.138412043368865</v>
+        <v>1.934107558751452</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>2.798216547494237</v>
+        <v>0.9259311313598806</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.757655717321982</v>
+        <v>1.280651803859989</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.6753076481029074</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>1.831762447564067</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>2.69124964061378</v>
+        <v>0.7957830962485257</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.625773169906108</v>
+        <v>1.324987171138314</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.42082970885531</v>
+        <v>1.882659757536698</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.530879676868468</v>
+        <v>-0.007094633234694392</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>2.01742511619909</v>
+        <v>1.444584248586422</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.530879676868468</v>
+        <v>1.935025917091848</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>2.159361127638926</v>
+        <v>2.004076350201744</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>2.039329803030121</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>2.104676416355189</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>2.754798876280251</v>
+        <v>2.510359031091491</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.030491763452114</v>
+        <v>1.751699155751707</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>2.559374235215039</v>
+        <v>1.973546706924467</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.060859685319461</v>
+        <v>3.078872076370009</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.733459627814305</v>
+        <v>2.279508996785351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.43119486791763</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>2.421949074001883</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.4891791466461126</v>
+        <v>-0.2157902153365976</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>1.156476476708135</v>
+        <v>1.778986693236351</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>1.982741503124119</v>
+        <v>1.685248597850153</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.240953541724267</v>
+        <v>1.823608346867833</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.598498189609066</v>
+        <v>2.215264539440076</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.4532848472497908</v>
+        <v>-0.3319353158441452</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.066462658785673</v>
+        <v>2.167555787027031</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.7941560676977599</v>
+        <v>-0.8983050033085416</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>2.320050994894562</v>
+        <v>2.057272936029797</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>2.782217648649521</v>
+        <v>1.819118980963297</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>3.392010093835562</v>
+        <v>2.70968435494483</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>2.595837839692172</v>
+        <v>2.313497876955384</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.9477102747197819</v>
+        <v>0.8695326511122925</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.83067479293082</v>
+        <v>1.760401078468798</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.34069710769782</v>
+        <v>2.400664632687732</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.116186509693896</v>
+        <v>2.31898124487091</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>2.985901060752827</v>
+        <v>2.549024517027965</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>2.735256324140778</v>
+        <v>2.708856304473262</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.169811364059249</v>
+        <v>2.326027472888215</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>2.222852754198135</v>
+        <v>2.384611583901286</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.934107558751452</v>
+        <v>2.068660354597474</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.9259311313598806</v>
+        <v>1.046187480688765</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.280651803859989</v>
+        <v>1.617728533922569</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.7957830962485257</v>
+        <v>1.06367661179847</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.324987171138314</v>
+        <v>1.162920200396078</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.882659757536698</v>
+        <v>1.752078078216446</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.007094633234694392</v>
+        <v>0.08046895846371971</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.444584248586422</v>
+        <v>1.524741412459951</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.935025917091848</v>
+        <v>1.956836678467866</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>2.004076350201744</v>
+        <v>2.061443511165129</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>2.510359031091491</v>
+        <v>2.272242485304421</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>1.751699155751707</v>
+        <v>1.675092508063591</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.973546706924467</v>
+        <v>1.97109328300884</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>3.078872076370009</v>
+        <v>3.067084363766437</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.279508996785351</v>
+        <v>2.244137191125728</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.43119486791763</v>
+        <v>2.361901723729409</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>2.421949074001883</v>
+        <v>2.230425161551541</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>5.896808312953783</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>7.441962824572235</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -473,7 +467,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>6.277541464866987</v>
+        <v>6.277541464866943</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -504,7 +498,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>6.535114773304773</v>
+        <v>6.535114773304795</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -544,7 +538,7 @@
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>4.950888348161886</v>
+        <v>4.950888348161864</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -555,13 +549,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>4.325828829470257</v>
+        <v>4.32582882947028</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>4.493586323244281</v>
+        <v>4.493586323244259</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,7 +572,7 @@
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>3.982564147794321</v>
+        <v>3.982564147794343</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -589,13 +583,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>2.964652118442834</v>
+        <v>2.964652118442856</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>3.83627393798931</v>
+        <v>3.836273937989332</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,7 +606,7 @@
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>4.334309403335435</v>
+        <v>4.334309403335457</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -646,7 +640,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>2.644356903452572</v>
+        <v>2.644356903452594</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,7 +657,7 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>3.484530515673856</v>
+        <v>3.484530515673834</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +674,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>3.383932287548697</v>
+        <v>3.383932287548674</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -691,13 +685,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.533350906619081</v>
+        <v>2.533350906619103</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>3.524103740130435</v>
+        <v>3.524103740130458</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -708,13 +702,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>2.508469427909898</v>
+        <v>2.508469427909921</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>3.355044026998955</v>
+        <v>3.355044026998977</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -725,7 +719,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.661040979345697</v>
+        <v>2.661040979345719</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -748,7 +742,7 @@
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>3.74984170812418</v>
+        <v>3.749841708124202</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -759,13 +753,13 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.788213251109939</v>
+        <v>2.788213251109917</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>3.595252063027843</v>
+        <v>3.595252063027865</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,7 +776,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>3.699072253610103</v>
+        <v>3.699072253610125</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -833,7 +827,7 @@
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>3.037278170871094</v>
+        <v>3.037278170871138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -861,7 +855,7 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>2.9927258084951</v>
+        <v>2.992725808495122</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -878,13 +872,13 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>3.047037961814492</v>
+        <v>3.047037961814514</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>2.880436144359444</v>
+        <v>2.880436144359466</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -895,7 +889,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>3.113514644866355</v>
+        <v>3.113514644866333</v>
       </c>
       <c r="D31">
         <v>2021</v>
@@ -912,7 +906,7 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>2.585454129751663</v>
+        <v>2.585454129751641</v>
       </c>
       <c r="D32">
         <v>2021</v>
@@ -929,7 +923,7 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.2157902153365976</v>
+        <v>-0.2157902153366087</v>
       </c>
       <c r="D33">
         <v>2021</v>
@@ -946,7 +940,7 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-0.2228847697281378</v>
+        <v>-0.22288476972816</v>
       </c>
       <c r="D34">
         <v>2021</v>
@@ -980,7 +974,7 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.3319353158441452</v>
+        <v>-0.3319353158441563</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -997,7 +991,7 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.8983050033085416</v>
+        <v>-0.8983050033085527</v>
       </c>
       <c r="D37">
         <v>2022</v>
@@ -1014,13 +1008,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>-1.165854108406617</v>
+        <v>-1.165854108406639</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.819118980963297</v>
+        <v>1.819118980963319</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1048,13 +1042,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.8695326511122925</v>
+        <v>0.8695326511123147</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.760401078468798</v>
+        <v>1.760401078468776</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,7 +1065,7 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.31898124487091</v>
+        <v>2.318981244870932</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1082,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>2.549024517027965</v>
+        <v>2.549024517027942</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,7 +1093,7 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>2.708856304473262</v>
+        <v>2.708856304473284</v>
       </c>
       <c r="D43">
         <v>2024</v>
@@ -1133,7 +1127,7 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>1.046187480688765</v>
+        <v>1.046187480688787</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -1167,7 +1161,7 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.162920200396078</v>
+        <v>1.162920200396056</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -1184,13 +1178,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.08046895846371971</v>
+        <v>0.0804689584636975</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.524741412459951</v>
+        <v>1.524741412459929</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,7 +1195,7 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.956836678467866</v>
+        <v>1.956836678467844</v>
       </c>
       <c r="D49">
         <v>2025</v>
@@ -1218,7 +1212,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>2.039329803030121</v>
+        <v>2.039329803030099</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1235,13 +1229,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>1.675092508063591</v>
+        <v>1.675092508063614</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.97109328300884</v>
+        <v>1.971093283008818</v>
       </c>
     </row>
     <row r="52" spans="1:5">

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>2.230425161551541</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.46481303148316</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>2.509429409292352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
